--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$79</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T11:08:45+00:00</t>
+    <t>2024-02-07T14:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1710,6 +1713,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -2056,7 +2074,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -2168,7 +2186,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -2282,7 +2300,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -2394,7 +2412,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -2506,7 +2524,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -2620,7 +2638,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>119</v>
       </c>
@@ -2734,7 +2752,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -2753,7 +2771,7 @@
         <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>76</v>
@@ -2848,7 +2866,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
@@ -2962,7 +2980,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
@@ -3076,7 +3094,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>142</v>
       </c>
@@ -3190,7 +3208,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>153</v>
       </c>
@@ -3304,7 +3322,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>162</v>
       </c>
@@ -3325,7 +3343,7 @@
         <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>76</v>
@@ -3418,7 +3436,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>166</v>
       </c>
@@ -3532,7 +3550,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>171</v>
       </c>
@@ -3646,7 +3664,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>180</v>
       </c>
@@ -3760,7 +3778,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>188</v>
       </c>
@@ -3874,7 +3892,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>195</v>
       </c>
@@ -3986,7 +4004,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>200</v>
       </c>
@@ -4007,7 +4025,7 @@
         <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>76</v>
@@ -4100,7 +4118,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>205</v>
       </c>
@@ -4121,7 +4139,7 @@
         <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>76</v>
@@ -4214,7 +4232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>210</v>
       </c>
@@ -4235,7 +4253,7 @@
         <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>76</v>
@@ -4328,7 +4346,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>215</v>
       </c>
@@ -4440,7 +4458,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>217</v>
       </c>
@@ -4552,7 +4570,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>219</v>
       </c>
@@ -4666,7 +4684,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>226</v>
       </c>
@@ -4778,7 +4796,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>234</v>
       </c>
@@ -4799,7 +4817,7 @@
         <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>76</v>
@@ -4892,7 +4910,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>238</v>
       </c>
@@ -4913,7 +4931,7 @@
         <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>76</v>
@@ -5006,7 +5024,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>242</v>
       </c>
@@ -5027,7 +5045,7 @@
         <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>76</v>
@@ -5120,7 +5138,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>247</v>
       </c>
@@ -5141,7 +5159,7 @@
         <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>76</v>
@@ -5234,7 +5252,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>252</v>
       </c>
@@ -5350,7 +5368,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>257</v>
       </c>
@@ -5369,7 +5387,7 @@
         <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>76</v>
@@ -5464,7 +5482,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>266</v>
       </c>
@@ -5582,7 +5600,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>276</v>
       </c>
@@ -5698,7 +5716,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>287</v>
       </c>
@@ -5717,7 +5735,7 @@
         <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>76</v>
@@ -5812,7 +5830,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>294</v>
       </c>
@@ -5926,7 +5944,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>299</v>
       </c>
@@ -5945,7 +5963,7 @@
         <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>76</v>
@@ -6040,7 +6058,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>307</v>
       </c>
@@ -6059,7 +6077,7 @@
         <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>76</v>
@@ -6152,7 +6170,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>316</v>
       </c>
@@ -6173,7 +6191,7 @@
         <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>76</v>
@@ -6266,7 +6284,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>320</v>
       </c>
@@ -6287,7 +6305,7 @@
         <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>76</v>
@@ -6380,7 +6398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>324</v>
       </c>
@@ -6401,7 +6419,7 @@
         <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>76</v>
@@ -6494,7 +6512,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>328</v>
       </c>
@@ -6515,7 +6533,7 @@
         <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>76</v>
@@ -6608,7 +6626,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>332</v>
       </c>
@@ -6629,7 +6647,7 @@
         <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>76</v>
@@ -6722,7 +6740,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>336</v>
       </c>
@@ -6743,7 +6761,7 @@
         <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>76</v>
@@ -6836,7 +6854,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>340</v>
       </c>
@@ -6857,7 +6875,7 @@
         <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>76</v>
@@ -6950,7 +6968,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>344</v>
       </c>
@@ -6971,7 +6989,7 @@
         <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>76</v>
@@ -7064,7 +7082,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>348</v>
       </c>
@@ -7085,7 +7103,7 @@
         <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>76</v>
@@ -7178,7 +7196,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>352</v>
       </c>
@@ -7199,7 +7217,7 @@
         <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>76</v>
@@ -7292,7 +7310,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>356</v>
       </c>
@@ -7406,7 +7424,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>363</v>
       </c>
@@ -7425,7 +7443,7 @@
         <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>76</v>
@@ -7520,7 +7538,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>369</v>
       </c>
@@ -7539,7 +7557,7 @@
         <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>76</v>
@@ -7634,7 +7652,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>378</v>
       </c>
@@ -7746,7 +7764,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>379</v>
       </c>
@@ -7858,7 +7876,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>380</v>
       </c>
@@ -7879,7 +7897,7 @@
         <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>76</v>
@@ -7972,7 +7990,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>385</v>
       </c>
@@ -7993,7 +8011,7 @@
         <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>76</v>
@@ -8086,7 +8104,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>390</v>
       </c>
@@ -8107,7 +8125,7 @@
         <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>76</v>
@@ -8200,7 +8218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>395</v>
       </c>
@@ -8314,7 +8332,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>406</v>
       </c>
@@ -8333,7 +8351,7 @@
         <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>76</v>
@@ -8430,7 +8448,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>415</v>
       </c>
@@ -8546,7 +8564,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>426</v>
       </c>
@@ -8660,7 +8678,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>432</v>
       </c>
@@ -8774,7 +8792,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>438</v>
       </c>
@@ -8793,7 +8811,7 @@
         <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>76</v>
@@ -8888,7 +8906,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>444</v>
       </c>
@@ -9000,7 +9018,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>445</v>
       </c>
@@ -9114,7 +9132,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>446</v>
       </c>
@@ -9135,7 +9153,7 @@
         <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>76</v>
@@ -9228,7 +9246,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>451</v>
       </c>
@@ -9249,7 +9267,7 @@
         <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>76</v>
@@ -9342,7 +9360,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>456</v>
       </c>
@@ -9363,7 +9381,7 @@
         <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>76</v>
@@ -9456,7 +9474,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>461</v>
       </c>
@@ -9572,7 +9590,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>466</v>
       </c>
@@ -9686,7 +9704,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
         <v>471</v>
       </c>
@@ -9798,7 +9816,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
         <v>474</v>
       </c>
@@ -9817,7 +9835,7 @@
         <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>76</v>
@@ -9912,7 +9930,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
         <v>479</v>
       </c>
@@ -9931,7 +9949,7 @@
         <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>76</v>
@@ -10026,7 +10044,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
         <v>482</v>
       </c>
@@ -10138,7 +10156,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
         <v>485</v>
       </c>
@@ -10250,7 +10268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
         <v>486</v>
       </c>
@@ -10364,7 +10382,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
         <v>487</v>
       </c>
@@ -10480,7 +10498,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
         <v>488</v>
       </c>
@@ -10594,7 +10612,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
         <v>491</v>
       </c>
@@ -10708,7 +10726,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
         <v>495</v>
       </c>
@@ -10822,7 +10840,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
         <v>498</v>
       </c>
@@ -10939,6 +10957,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN79">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI78">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:28:15+00:00</t>
+    <t>2024-02-07T16:04:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -917,7 +917,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner)
+    <t xml:space="preserve">Reference(Practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner)
 </t>
   </si>
   <si>
@@ -940,7 +940,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization)
 </t>
   </si>
   <si>
@@ -1127,7 +1127,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location)
 </t>
   </si>
   <si>
@@ -1149,7 +1149,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(HealthcareService)
+    <t xml:space="preserve">Reference(HealthcareService|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice)
 </t>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="112.875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="138.9140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T16:04:22+00:00</t>
+    <t>2024-02-07T17:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T17:31:40+00:00</t>
+    <t>2024-02-07T17:32:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T17:32:41+00:00</t>
+    <t>2024-02-08T09:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T09:57:00+00:00</t>
+    <t>2024-02-11T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T15:45:47+00:00</t>
+    <t>2024-02-12T12:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T12:45:21+00:00</t>
+    <t>2024-02-15T16:40:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:40:40+00:00</t>
+    <t>2024-02-16T09:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T09:35:34+00:00</t>
+    <t>2024-02-16T16:20:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T16:20:17+00:00</t>
+    <t>2024-02-21T15:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:13:04+00:00</t>
+    <t>2024-02-26T15:10:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T15:10:23+00:00</t>
+    <t>2024-02-29T09:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T09:27:29+00:00</t>
+    <t>2024-02-29T09:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T09:39:56+00:00</t>
+    <t>2024-03-12T11:10:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T11:10:47+00:00</t>
+    <t>2024-03-12T16:09:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T17:24:09+00:00</t>
+    <t>2024-03-12T17:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T17:37:11+00:00</t>
+    <t>2024-03-12T17:47:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T17:47:27+00:00</t>
+    <t>2024-03-12T18:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:03:49+00:00</t>
+    <t>2024-03-12T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:27:00+00:00</t>
+    <t>2024-03-12T18:45:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:45:19+00:00</t>
+    <t>2024-03-12T19:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T19:04:09+00:00</t>
+    <t>2024-03-12T19:33:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T19:33:13+00:00</t>
+    <t>2024-03-12T20:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T20:05:23+00:00</t>
+    <t>2024-03-12T20:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T20:36:46+00:00</t>
+    <t>2024-03-12T20:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T20:57:01+00:00</t>
+    <t>2024-03-12T21:17:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T21:17:35+00:00</t>
+    <t>2024-03-13T08:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T08:46:11+00:00</t>
+    <t>2024-03-13T09:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T09:02:53+00:00</t>
+    <t>2024-03-13T09:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0-ballot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T10:24:41+00:00</t>
+    <t>2024-03-13T16:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T16:27:50+00:00</t>
+    <t>2024-03-13T16:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T16:38:24+00:00</t>
+    <t>2024-03-13T17:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T17:00:38+00:00</t>
+    <t>2024-03-22T16:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,6 +234,12 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: ExerciceProfessionnel du Modèle exposition ROR V3</t>
+  </si>
+  <si>
+    <t>Mapping: SituationOperationnelle du Modèle exposition ROR V3</t>
+  </si>
+  <si>
     <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
@@ -244,12 +250,6 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: ExerciceProfessionnel du Modèle exposition ROR V3</t>
-  </si>
-  <si>
-    <t>Mapping: SituationOperationnelle du Modèle exposition ROR V3</t>
   </si>
   <si>
     <t/>
@@ -275,6 +275,12 @@
 dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
+    <t>ExerciceProfessionnel</t>
+  </si>
+  <si>
+    <t>SituationOperationnelle</t>
+  </si>
+  <si>
     <t>PRD (as one example)</t>
   </si>
   <si>
@@ -282,12 +288,6 @@
   </si>
   <si>
     <t>ServiceSiteProvider</t>
-  </si>
-  <si>
-    <t>ExerciceProfessionnel</t>
-  </si>
-  <si>
-    <t>SituationOperationnelle</t>
   </si>
   <si>
     <t>PractitionerRole.id</t>
@@ -342,10 +342,10 @@
 </t>
   </si>
   <si>
+    <t>metadonnee</t>
+  </si>
+  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>metadonnee</t>
   </si>
   <si>
     <t>PractitionerRole.meta.id</t>
@@ -905,6 +905,9 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
+    <t>identifiantSituationOperationnelle</t>
+  </si>
+  <si>
     <t>PRD-7 (or XCN.1)</t>
   </si>
   <si>
@@ -915,9 +918,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>identifiantSituationOperationnelle</t>
   </si>
   <si>
     <t>PractitionerRole.active</t>
@@ -1003,10 +1003,10 @@
 ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
+    <t>Professionnel</t>
+  </si>
+  <si>
     <t>.player</t>
-  </si>
-  <si>
-    <t>Professionnel</t>
   </si>
   <si>
     <t>PractitionerRole.organization</t>
@@ -1043,13 +1043,13 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J229-ProfessionSante-ROR/FHIR/JDV-J229-ProfessionSante-ROR</t>
   </si>
   <si>
+    <t>profession</t>
+  </si>
+  <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
   </si>
   <si>
     <t>.code</t>
-  </si>
-  <si>
-    <t>profession</t>
   </si>
   <si>
     <t>PractitionerRole.specialty</t>
@@ -1264,13 +1264,13 @@
     <t>The list of healthcare services that this worker provides for this role's Organization/Location(s).</t>
   </si>
   <si>
+    <t>OffreOperationnelle</t>
+  </si>
+  <si>
     <t>EDU-2 / AFF-3</t>
   </si>
   <si>
     <t>.player.QualifiedEntity[@classCode = 'QUAL'].code</t>
-  </si>
-  <si>
-    <t>OffreOperationnelle</t>
   </si>
   <si>
     <t>PractitionerRole.telecom</t>
@@ -1293,6 +1293,9 @@
 cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
   </si>
   <si>
+    <t>telecommunication</t>
+  </si>
+  <si>
     <t>XTN</t>
   </si>
   <si>
@@ -1300,9 +1303,6 @@
   </si>
   <si>
     <t>ContactPoint</t>
-  </si>
-  <si>
-    <t>telecommunication</t>
   </si>
   <si>
     <t>PractitionerRole.telecom.id</t>
@@ -1411,6 +1411,9 @@
     <t>ContactPoint.value</t>
   </si>
   <si>
+    <t>adresseTelecom</t>
+  </si>
+  <si>
     <t>XTN.1 (or XTN.12)</t>
   </si>
   <si>
@@ -1418,9 +1421,6 @@
   </si>
   <si>
     <t>./Value</t>
-  </si>
-  <si>
-    <t>adresseTelecom</t>
   </si>
   <si>
     <t>PractitionerRole.telecom.use</t>
@@ -1509,10 +1509,10 @@
     <t>More detailed availability information may be provided in associated Schedule/Slot resources.</t>
   </si>
   <si>
+    <t>horaire</t>
+  </si>
+  <si>
     <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>horaire</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime.id</t>
@@ -2069,12 +2069,12 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="85.47265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="78.58203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="194.47265625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="65.40234375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="67.484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="65.40234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="67.484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="85.47265625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="78.58203125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="194.47265625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2314,13 +2314,13 @@
         <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -2425,10 +2425,10 @@
         <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AM3" t="s" s="2">
         <v>78</v>
@@ -2437,10 +2437,10 @@
         <v>78</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" hidden="true">
@@ -2543,7 +2543,7 @@
         <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>106</v>
@@ -2552,13 +2552,13 @@
         <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" hidden="true">
@@ -2664,13 +2664,13 @@
         <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN5" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN5" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>78</v>
@@ -2784,13 +2784,13 @@
         <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>78</v>
@@ -2904,13 +2904,13 @@
         <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN7" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>78</v>
@@ -3021,22 +3021,22 @@
         <v>105</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AL8" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN8" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AM8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO8" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" hidden="true">
@@ -3144,13 +3144,13 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN9" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>78</v>
@@ -3264,13 +3264,13 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN10" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>78</v>
@@ -3381,16 +3381,16 @@
         <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3501,16 +3501,16 @@
         <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>78</v>
@@ -3621,22 +3621,22 @@
         <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO13" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -3744,13 +3744,13 @@
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>78</v>
@@ -3864,13 +3864,13 @@
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -3984,13 +3984,13 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -4104,13 +4104,13 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -4342,7 +4342,7 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -4354,7 +4354,7 @@
         <v>78</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" hidden="true">
@@ -4458,9 +4458,7 @@
       <c r="AJ20" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="AK20" s="2"/>
       <c r="AL20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4470,7 +4468,9 @@
       <c r="AN20" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AO20" s="2"/>
+      <c r="AO20" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AP20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4580,13 +4580,13 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4698,13 +4698,13 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4936,13 +4936,13 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -5054,19 +5054,19 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" hidden="true">
@@ -5174,13 +5174,13 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>78</v>
@@ -5292,13 +5292,13 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5412,13 +5412,13 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5532,13 +5532,13 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5650,19 +5650,19 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -5770,13 +5770,13 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5888,13 +5888,13 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -6008,13 +6008,13 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -6128,13 +6128,13 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6246,19 +6246,19 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" hidden="true">
@@ -6608,13 +6608,13 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -6725,19 +6725,19 @@
         <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>289</v>
@@ -6849,22 +6849,22 @@
         <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AM40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AP40" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="41" hidden="true">
@@ -6971,22 +6971,22 @@
         <v>305</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AP41" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -7091,19 +7091,19 @@
         <v>315</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>78</v>
@@ -7214,13 +7214,13 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7334,16 +7334,16 @@
         <v>329</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>78</v>
@@ -7449,19 +7449,19 @@
         <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>78</v>
@@ -7569,19 +7569,19 @@
         <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>78</v>
@@ -7689,19 +7689,19 @@
         <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>78</v>
@@ -7809,19 +7809,19 @@
         <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>78</v>
@@ -7929,19 +7929,19 @@
         <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>78</v>
@@ -8049,19 +8049,19 @@
         <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>78</v>
@@ -8169,19 +8169,19 @@
         <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>78</v>
@@ -8289,19 +8289,19 @@
         <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>78</v>
@@ -8409,19 +8409,19 @@
         <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>78</v>
@@ -8529,19 +8529,19 @@
         <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>78</v>
@@ -8649,19 +8649,19 @@
         <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>78</v>
@@ -8772,19 +8772,19 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AP56" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="57" hidden="true">
@@ -8889,22 +8889,22 @@
         <v>315</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AM57" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AN57" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" hidden="true">
@@ -9009,22 +9009,22 @@
         <v>410</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AN58" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO58" t="s" s="2">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" hidden="true">
@@ -9130,13 +9130,13 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -9725,19 +9725,19 @@
         <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>78</v>
@@ -9847,22 +9847,22 @@
         <v>105</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AN65" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO65" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>452</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" hidden="true">
@@ -9969,19 +9969,19 @@
         <v>105</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>78</v>
@@ -10089,16 +10089,16 @@
         <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>78</v>
@@ -10209,19 +10209,19 @@
         <v>305</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AO68" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>78</v>
@@ -10338,13 +10338,13 @@
         <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>482</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" hidden="true">
@@ -10450,13 +10450,13 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>78</v>
@@ -10570,13 +10570,13 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>78</v>
@@ -11052,13 +11052,13 @@
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>78</v>
@@ -11172,13 +11172,13 @@
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>78</v>
@@ -11290,13 +11290,13 @@
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>78</v>
@@ -11410,19 +11410,19 @@
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>518</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" hidden="true">
@@ -11530,19 +11530,19 @@
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>522</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" hidden="true">
@@ -11648,13 +11648,13 @@
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>78</v>
@@ -11766,13 +11766,13 @@
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>78</v>
@@ -11886,13 +11886,13 @@
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>78</v>
@@ -12008,13 +12008,13 @@
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>78</v>
@@ -12128,13 +12128,13 @@
         <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>78</v>
@@ -12245,16 +12245,16 @@
         <v>305</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AL85" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AN85" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>78</v>
@@ -12368,13 +12368,13 @@
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>78</v>
@@ -12490,13 +12490,13 @@
         <v>78</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>78</v>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T16:25:12+00:00</t>
+    <t>2024-04-02T15:41:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T15:41:03+00:00</t>
+    <t>2024-04-02T16:06:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T16:06:43+00:00</t>
+    <t>2024-04-10T16:04:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T16:04:08+00:00</t>
+    <t>2024-04-11T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:28:17+00:00</t>
+    <t>2024-04-11T09:33:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:33:38+00:00</t>
+    <t>2024-05-03T15:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -688,7 +688,7 @@
     <t>ror-practitionerrole-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/RORPractitionerRoleName}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole-name}
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T15:00:21+00:00</t>
+    <t>2024-05-13T08:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T08:42:46+00:00</t>
+    <t>2024-05-13T09:06:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T09:06:15+00:00</t>
+    <t>2024-05-15T15:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-ballot-1</t>
+    <t>0.4.0-qa-preview-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T15:09:55+00:00</t>
+    <t>2024-05-16T12:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-qa-preview-1</t>
+    <t>0.4.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T12:22:44+00:00</t>
+    <t>2024-05-16T15:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T15:07:59+00:00</t>
+    <t>2024-05-16T17:06:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T17:06:23+00:00</t>
+    <t>2024-05-17T07:43:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:43:07+00:00</t>
+    <t>2024-05-17T08:22:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T08:22:30+00:00</t>
+    <t>2024-05-17T09:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:21:28+00:00</t>
+    <t>2024-05-17T14:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T14:16:22+00:00</t>
+    <t>2024-05-22T08:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-1</t>
+    <t>0.4.0-snapshot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:14:33+00:00</t>
+    <t>2024-05-23T14:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:06+00:00</t>
+    <t>2024-07-02T15:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T15:46:36+00:00</t>
+    <t>2024-07-09T07:30:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T07:30:06+00:00</t>
+    <t>2024-07-09T09:01:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:01:38+00:00</t>
+    <t>2024-07-09T09:29:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:29:20+00:00</t>
+    <t>2024-07-09T14:18:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T14:18:56+00:00</t>
+    <t>2024-09-13T14:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T14:28:16+00:00</t>
+    <t>2024-10-07T14:01:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -451,7 +451,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -471,7 +471,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T14:01:40+00:00</t>
+    <t>2024-10-08T07:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T07:48:52+00:00</t>
+    <t>2024-10-23T09:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T09:49:13+00:00</t>
+    <t>2024-12-02T10:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T10:17:54+00:00</t>
+    <t>2024-12-04T15:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T15:03:14+00:00</t>
+    <t>2024-12-05T09:03:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-2</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T09:03:52+00:00</t>
+    <t>2024-12-09T11:05:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T11:05:44+00:00</t>
+    <t>2024-12-09T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T11:19:41+00:00</t>
+    <t>2024-12-09T12:55:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T12:55:38+00:00</t>
+    <t>2024-12-09T13:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:16:30+00:00</t>
+    <t>2024-12-09T13:44:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:44:46+00:00</t>
+    <t>2024-12-09T13:53:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:53:32+00:00</t>
+    <t>2024-12-09T14:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T16:43:44+00:00</t>
+    <t>2024-12-10T08:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:40:22+00:00</t>
+    <t>2024-12-10T08:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:43:17+00:00</t>
+    <t>2024-12-10T08:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:45:21+00:00</t>
+    <t>2024-12-16T09:17:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:17:42+00:00</t>
+    <t>2024-12-16T09:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:21:00+00:00</t>
+    <t>2024-12-16T09:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:28:29+00:00</t>
+    <t>2024-12-16T09:31:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:31:22+00:00</t>
+    <t>2024-12-16T09:34:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:34:54+00:00</t>
+    <t>2024-12-16T09:49:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:49:25+00:00</t>
+    <t>2024-12-16T09:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:53:18+00:00</t>
+    <t>2024-12-16T10:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:03:27+00:00</t>
+    <t>2024-12-16T10:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:04:41+00:00</t>
+    <t>2024-12-16T10:07:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:07:45+00:00</t>
+    <t>2024-12-16T10:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:11:58+00:00</t>
+    <t>2024-12-16T10:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:18:50+00:00</t>
+    <t>2024-12-16T10:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:19:28+00:00</t>
+    <t>2024-12-16T10:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:26:01+00:00</t>
+    <t>2025-01-22T15:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T15:00:55+00:00</t>
+    <t>2025-01-28T15:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T15:58:19+00:00</t>
+    <t>2025-03-03T10:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:17:50+00:00</t>
+    <t>2025-03-03T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:20:03+00:00</t>
+    <t>2025-03-03T17:10:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T17:10:11+00:00</t>
+    <t>2025-03-07T13:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-07T13:29:09+00:00</t>
+    <t>2025-03-10T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0-snapshot-1</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10T14:14:07+00:00</t>
+    <t>2025-03-13T17:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T17:00:51+00:00</t>
+    <t>2025-03-13T21:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T21:07:49+00:00</t>
+    <t>2025-03-14T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:18:51+00:00</t>
+    <t>2025-03-14T08:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:31:00+00:00</t>
+    <t>2025-03-14T08:36:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:36:00+00:00</t>
+    <t>2025-03-14T08:58:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:58:55+00:00</t>
+    <t>2025-03-14T09:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T09:23:47+00:00</t>
+    <t>2025-03-17T13:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T13:12:35+00:00</t>
+    <t>2025-03-18T09:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T09:01:13+00:00</t>
+    <t>2025-03-27T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-27T16:26:35+00:00</t>
+    <t>2025-06-04T09:55:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2034,17 +2034,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="84.24609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="46.02734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="72.2265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="138.9140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.09375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2053,28 +2053,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="108.4375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="133.3125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="92.96484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="114.2890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="59.33203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="65.40234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="67.484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="85.47265625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="78.58203125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="194.47265625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="56.0703125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="57.85546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="73.27734375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="67.37109375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="166.7265625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:55:05+00:00</t>
+    <t>2025-06-10T08:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T08:02:33+00:00</t>
+    <t>2025-07-17T08:38:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T08:38:04+00:00</t>
+    <t>2025-07-17T09:53:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T09:53:53+00:00</t>
+    <t>2025-07-17T13:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T13:53:21+00:00</t>
+    <t>2025-07-17T14:29:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:29:52+00:00</t>
+    <t>2025-07-17T15:27:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:27:59+00:00</t>
+    <t>2025-07-17T15:32:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:32:30+00:00</t>
+    <t>2025-07-25T09:27:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:27:54+00:00</t>
+    <t>2025-07-28T16:37:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T16:37:17+00:00</t>
+    <t>2025-07-29T14:46:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T14:46:28+00:00</t>
+    <t>2025-07-29T15:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T15:03:53+00:00</t>
+    <t>2025-07-30T08:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2034,17 +2034,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="72.2265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.26953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="84.24609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="46.02734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="119.09375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="138.9140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2053,28 +2053,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="92.96484375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="114.2890625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="59.33203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.26953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="108.4375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="133.3125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="56.0703125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="57.85546875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="73.27734375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="67.37109375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="166.7265625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="65.40234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="67.484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="85.47265625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="78.58203125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="194.47265625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:54:50+00:00</t>
+    <t>2025-07-30T09:38:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T09:38:37+00:00</t>
+    <t>2025-10-16T15:18:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.7.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T15:18:57+00:00</t>
+    <t>2025-10-17T13:18:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:18:06+00:00</t>
+    <t>2025-10-17T13:49:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:49:18+00:00</t>
+    <t>2026-01-19T14:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T14:25:36+00:00</t>
+    <t>2026-01-20T13:10:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T13:10:13+00:00</t>
+    <t>2026-01-21T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
